--- a/Borang_JMB_try.xlsx
+++ b/Borang_JMB_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MustakhimRehan/rails_projects/kota-fin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCFB6DD-8709-B04F-8D11-6663AB53C33E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECBE0E-4FA6-634E-9609-B38616B9A605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -80,10 +80,6 @@
 WYR8987,Honda,Sedan;</t>
   </si>
   <si>
-    <t>WYR8987,Honda,Sedan;
-WYR8987,Honda,Sedan;</t>
-  </si>
-  <si>
     <t>Mohd Mustakhim Noor Rehan2;
 29/09/1990;
 0134451169;
@@ -115,6 +111,26 @@
   </si>
   <si>
     <t>Lorong LEP 3/7</t>
+  </si>
+  <si>
+    <t>WYR8987,Honda,Sedan;
+WYR8988,Honda1,Sedan1;</t>
+  </si>
+  <si>
+    <t>WYR8980,Honda2,Sedan2;
+WYR8981,Honda3,Sedan3;</t>
+  </si>
+  <si>
+    <t>Lorong LEP 3/9</t>
+  </si>
+  <si>
+    <t>30-A</t>
+  </si>
+  <si>
+    <t>;
+;
+;
+;</t>
   </si>
 </sst>
 </file>
@@ -558,7 +574,7 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -658,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>15</v>
@@ -690,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>16</v>
@@ -711,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -721,20 +737,22 @@
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="9" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
